--- a/working/hatfield/gill.rake.len.xlsx
+++ b/working/hatfield/gill.rake.len.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/hatfield/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3D7269-06D3-1845-817C-338928470636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1515B5D3-6749-994C-B80C-CE346712EBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="500" windowWidth="22820" windowHeight="13960" xr2:uid="{9B3EA286-C3C7-E943-8F2F-105FD76FB03C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15320" windowHeight="13960" xr2:uid="{9B3EA286-C3C7-E943-8F2F-105FD76FB03C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>cross</t>
   </si>
@@ -77,13 +77,7 @@
     <t>BC2</t>
   </si>
   <si>
-    <t>hatfield 1997</t>
-  </si>
-  <si>
-    <t>gill raker length</t>
-  </si>
-  <si>
-    <t>limnetic = p1</t>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -435,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8005B5-9F14-7B4E-82CF-629DAE8DB10C}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,6 +470,12 @@
       <c r="C2">
         <v>2.4066390041493774E-2</v>
       </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
       <c r="F2">
         <v>1</v>
       </c>
@@ -493,6 +493,12 @@
       <c r="C3">
         <v>1.7012448132780082E-2</v>
       </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
       <c r="F3">
         <v>2</v>
       </c>
@@ -510,6 +516,18 @@
       <c r="C4">
         <v>1.7427385892116183E-2</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -521,6 +539,18 @@
       <c r="C5">
         <v>1.5767634854771787E-2</v>
       </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -532,6 +562,18 @@
       <c r="C6">
         <v>2.6141078838174271E-2</v>
       </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -543,18 +585,17 @@
       <c r="C7">
         <v>1.8672199170124481E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I19" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
